--- a/Self-Cross Pairs.xlsx
+++ b/Self-Cross Pairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DAA7EF-973F-495B-A8C3-E2BD404877BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63610B11-45A9-4CD3-A118-D40638C318BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20988" windowHeight="9132" activeTab="1" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
+    <workbookView xWindow="0" yWindow="3228" windowWidth="20988" windowHeight="9132" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>Self</t>
   </si>
@@ -133,18 +133,12 @@
     <t>L. portula</t>
   </si>
   <si>
-    <t>L.salicaria</t>
-  </si>
-  <si>
     <t>P. vulgaris</t>
   </si>
   <si>
     <t>S. vulgaris</t>
   </si>
   <si>
-    <t>P. dysentria</t>
-  </si>
-  <si>
     <t>S. tridactylites</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>Difference (Self-Cross)</t>
   </si>
   <si>
-    <t>S. jacobeae</t>
-  </si>
-  <si>
     <t>V. kitaibeliana</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Callitriche</t>
   </si>
   <si>
-    <t>Fallopia</t>
-  </si>
-  <si>
     <t>Orobanche</t>
   </si>
   <si>
@@ -254,13 +242,878 @@
   </si>
   <si>
     <t>S. squalidus</t>
+  </si>
+  <si>
+    <t>V. polita</t>
+  </si>
+  <si>
+    <t>V. chamaedrys</t>
+  </si>
+  <si>
+    <t>C. damasonium</t>
+  </si>
+  <si>
+    <t>C. longifolia</t>
+  </si>
+  <si>
+    <t>E. phyllanthes</t>
+  </si>
+  <si>
+    <t>S. pallida</t>
+  </si>
+  <si>
+    <t>S. neglecta</t>
+  </si>
+  <si>
+    <t>GBIF</t>
+  </si>
+  <si>
+    <t>Self Occurances</t>
+  </si>
+  <si>
+    <t>Cross Occurances</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Euro-Med</t>
+  </si>
+  <si>
+    <t>Self Regions Native</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>Cross Regions Native</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE Ag Al Ar Au(A) Az Be Bl(M) Br Bu By</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> dCa(C F G H L P T) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Co Cr Cs Ct Cy Da Eg Es Fe Ga(F) Gr Hb(E) He Ho Hs(A S) Hu IJ It La Li LS Lt Lu Ma Md(D M P) Mk Mo Rf(C K N NW S) Rm Sa Sg Si(M S) Sk Sl Sn Sr Su Tn Tu(A E) Uk(K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> [Az(C F G J L M P S T) Bu Ge Is No Po]</t>
+    </r>
+  </si>
+  <si>
+    <t>Ag Au(A) Az(F J L P S) Be Bl(M) Br Cr Fa Ga(F) Ge Gr Hb(E) He Ho Hs(S) It Lu Ma Mo Sa Tn Uk(K)</t>
+  </si>
+  <si>
+    <t>Ag Al Au Be Bl Br Bt Bu By Co Cy Cz Da Ga Ge Gr He Ho Hs Hu IJ It Ju LS Po Rf(CS S) Rm Sa Si Su Tcs Tu(A E) Uk(K U)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE(G) Ag Al Au Be Bl Br Bt Bu By Co Cy Cz Da Fe Ga Ge Gr Hb He</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> †Ho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hs Hu IJ It Ju LS Lu Ma No Po Rf(C CS E S) Rm Sa Si Su Tcs Tn Tu(A E) Uk(K U)</t>
+    </r>
+  </si>
+  <si>
+    <t>Au Be Br Da Ga Ge Hb Hs Su</t>
+  </si>
+  <si>
+    <t>Ab(A) Ag Al Ar Au(A) Be(B) Br Bu Co Cz Ga(F) Ge Gg(A G) Gr He Ho Hs(S) Hu IJ It Ju Le Lu Ma Mo Po Rf(CS S) Rm Sa Si(S) Sy Tn Tu(A E) Uk(K U)</t>
+  </si>
+  <si>
+    <t>Ab(A N) AE(G) Al Ar Au(A) Be(B) Br Bu By Co Cz Da Es Fa Fe Ga(F) Ge Gg(A D G) Gr Hb(E) He Ho Hs(S) Hu Is It Ju La Le Lt Lu Ma Mo No Po Rf(C CS E K N NW S) Rm Sa Si(S) Su Tu(A E) Uk(K U)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ag Al Au(A) Az(F J L M P T) Be(L) BH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Bl</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Br Bu By Cg Co Cr Cs Ct Da Es Fe Ga(F) Ge Gr Hb(E N) He Ho Hs(S) Hu It La Lt Lu Ma Mk Mo No Po Rf(C E K N NW S) Rm Sa Si(S) Sk Sl Sr Su Tn Tu(A E) Uk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ab(A N) Ag Al Ar Au(A) Be(L) BH Bl(I) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Bl(N)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Br Bu By Cg Co Cs Ct Da Es Fe Ga(F) Ge Gg(A D G) Gr Hb(E N) He Ho Hs(A S) Hu Ir It Jo La Le Lt Lu Ma Mk Mo No Po Rf(C CS E K N NW S) Rm Sa Si(S) Sk Sl Sr Su Sy Tn Tu(A E) Uk(K)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ag Al Au Be Bl Br Bt Bu By Co Cz Da Fa Fe Ga Ge Gr Hb He Ho Hs Hu It Ju Lu Ma No Po Rf(C N NW) Rm Sa Su Tu(E) Uk(U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Az Md]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE(G) Ag Al Au Be Br Bu Ca Co Cr Cy Ga Ge Gr He Hs Hu It Ju LS Lu Ma Rf(CS) Rm Sa Si Tcs Tn Tu(A E) Uk(K) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[No]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ab(A) AE(G) Ag Al Ar Au(A) Be(B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>†Be(L)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BH Bl(M N) Br Bu By Cg Co Cr Cs Ct </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?Eg †Ga(C)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ga(F) Ge Gg Gr He Ho Hs(S) Hu It La </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Li Lt Lu Ma Mk Mo Po Rf(C CS E K S) Rm Sa Si(S) Sk Sl Sr Su Tu(A E) Uk(K U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[aDa aEs aHb(E)]</t>
+    </r>
+  </si>
+  <si>
+    <t>AE(G) Ag Al Au(A) Be(B L) BH Bl(I M N) Br Bu By Cg Co Cr Cs Ct Cy Da Es Fe Ga(F) Ge Gr Hb(E) He Ho Hs(S) Hu IJ It La Le Li Lt Lu Ma Mk Mo No Po Rf Rm Sa Si(M S) Sk Sl Sr Su Tn Tu(E) Uk(K U)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au(A) Be(B L) BH Br By Cg Cs Ct Da Es Fe Ga(F) Ge Hb(E) He Ho Hs(A S) Hu It La Lt Lu Ma No Po Rf Sa Si(S) Sk Sl Sr Su Uk(U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Fe]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ab(A) AE(G T) Ag Al Ar Au(A L) Be(B L) BH Bl(I M N) Br Bu By </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dCa(C F G) -Ca(H)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ca(L P T) Cg Co Cr Cs Ct Cy Da Eg Es Fa Fe Ga(C F M) Ge Gg Gr Hb(E N) He Ho Hs(A G S) Hu Ir Is It La Le Li Lt Lu Ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dMd(D M P)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mk Mo No Rf(C CS E K N NW S) Rm Sa Si(M S) Sk Sl Sn Sr Su Sy Tn Tu(A E) Uk(K U)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [nAz(F G L M P S T) nPo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ab(A) AE(G) Ag Al Au(A) Be Bl(I M N) Br Bu Co Cr Ct Cy Da Eg Es Ga(F) Gr Hb(E) He Ho Hs(S) Hu IJ It La Li LS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -Lu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ma Mk Po Rm Sa Si(M S) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dSk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sl Sn Su Tn Tu(A E) Uk(K) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ca(L) Ge]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ab(A) Ag Al Ar Au(A) Be Bl(M) Br Bu Co Cr Ct Da Ga(F) Ge Gr Hb(E) He Ho Hs(S) Hu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-IJ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It LS Lu Ma Mk Po Rm Sa Si(M S) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dSk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Sl Su Tn Tu(A) Uk(K)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Al Au(A L) Az Be(B L) Br Bu By Co Cy Cz Da Ga(C F) Ge Gr Hb(E N) He Ho Hs(A S) Hu Ir It Ju La Lt Lu Ma No Po Rf(C CS K S) Rm Sa Su Tn Tu(A E) Uk(K U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ab(A) Es Fe Gg(A D G)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ab(A N) AE(G) Ag Al Ar Au(A L) Az Be(B L) Bl Br Bu By Ca Co Cr Cy Cz Da Eg Es Ga(C F) Ge Gg(A D G) Gr Hb(E N) He Ho Hs(A G S) Hu Ir It Jo Ju La Le Lt Lu Ma Md Mo No Po Rf(C CS E K N NW S) Rm Sa Si(M S) Sn Su Sy Tn Tu(A E) Uk(K U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Fa Fe]</t>
+    </r>
+  </si>
+  <si>
+    <t>Ab(A N) AE(G) Ag Al Ar Au(A L) Be(B L) Bl Br Bu By Ca Co Cr Cy Cz Da Eg Es Fe Ga(C F) Ge Gg(A D G) Gr Hb(E) He Ho Hs(A S) Hu Ir It Jo Ju La Le Lt Lu Ma Md Mo No Po Rf(C CS E K N NW S) Rm Sa Si(M S) Su Sy Tn Tu(A E) Uk(K U)</t>
+  </si>
+  <si>
+    <t>Ab(A N) AE(G) Ag Al Ar Au(A) Az Be(B) Bl Br Bu By Co Cr Cy Cz Da Eg Es Fa Fe Ga(F) Ge Gg(A D G) Gr Hb(E) He Ho Hs(S) Hu Ir Is It Ju La Le Lt Lu Ma Mo No Po Rf(C CS E K N NW S) Rm Sa Si(M S) Su Sy Tn Tu(A E) Uk(K U)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ab(A N) AE(G) Ag Al Ar Au(A) Be(B) BH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Br </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bu Ca(T) Cg Co Cr Cs Ct Cy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Ga(C)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ga(F) Ge Gg(A G) Gr He Hs(S) Hu Ir It Jo Lu Ma Mk Mo Po Rf(C CS E S) Rm Si(S) Sk Sl Sr Sy Tu(A E) Uk(K U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ge aPo Rf(C)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE(G) Ag Al Au(A L) Be(B L) BH Br Bu By Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> dCa(G H P T)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Cg Co Cs Ct Da Es Fa Fe Ga(F) Ge Gr Hb(E N) He Ho Hs(A S) Hu Is It La Le Lt Lu Ma Md(M) Mk Mo No Po Rf(C E K N NW) Rm Sa Si(S) Sk Sl Sr Su Tn Tu(E) Uk</t>
+    </r>
+  </si>
+  <si>
+    <t>Major Regions</t>
+  </si>
+  <si>
+    <t>WE, SE, CE, EE, C, MME, NA</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE, EE, MME, NA</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE, EE, C, MME, NA</t>
+  </si>
+  <si>
+    <t>WE, SE, CE, EE, NA</t>
+  </si>
+  <si>
+    <t>Regions Difference</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE, EE, NA</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE, EE, C, NA</t>
+  </si>
+  <si>
+    <t>E. atrorubens</t>
+  </si>
+  <si>
+    <t>P. dysenterica</t>
+  </si>
+  <si>
+    <t>S. jacobaea</t>
+  </si>
+  <si>
+    <t>Al Au Be Br Bt Bu By Cz Da Fe Ga Ge Gr Hb He Ho Hs Hu It Ju No Po Rf(C CS E N NW S) Rm Su Tcs Tu(E) Uk(K U)</t>
+  </si>
+  <si>
+    <t>NE, WE, SE, CE, EE, C</t>
+  </si>
+  <si>
+    <t>Ab(A N) AE(G) Ag Al Ar Au(A L) Be(B L) BH Bl(I M N) Br Bu By Cg Co Cr Cs Ct Cy Da Ga(C F) Ge Gg Gr Hb(E N) He Ho Hs(A S) Hu Ir It ?Jo Le Lu Ma Mk Mo Rf(C CS) Rm Sa Si(M S) Sk Sl Sr Sy Tn Tu(A E) Uk(K U) [aNo nPo]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Al Ar Au(A L) Be(B L) BH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Bl(N)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Br Bu By Cg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Co</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cs Ct Da Es Ga(C F) Ge Gg Gr Hb(E N) He Ho Hs(A G S) Hu It La Lt Lu Ma Mk Mo No Po Rf(C CS E K NW S) Rm Sk Sl Sr Su Tn Tu(A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?Tu(E)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uk(K U) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[nFe nNo Rf(N)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Major Regions Difference</t>
+  </si>
+  <si>
+    <t>Self Distribution Notes</t>
+  </si>
+  <si>
+    <t>Cross Distribution Notes</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Europe, Near East &amp; South Asia</t>
+  </si>
+  <si>
+    <t>Europe, Near East &amp; Asia</t>
+  </si>
+  <si>
+    <t>Europe, NW Asia</t>
+  </si>
+  <si>
+    <t>Europe, Asia, W North America, New Zealand</t>
+  </si>
+  <si>
+    <t>Europe, Near East, W North America, S Australia, New Zealand</t>
+  </si>
+  <si>
+    <t>Europe, Americas, SE Australia, New Zealand</t>
+  </si>
+  <si>
+    <t>Europe (not N), Mediterranean Basin, W North America</t>
+  </si>
+  <si>
+    <t>Europe, W North America, New Zealand</t>
+  </si>
+  <si>
+    <t>L. salicaria</t>
+  </si>
+  <si>
+    <t>Eurasia</t>
+  </si>
+  <si>
+    <t>Europe, Near East, North America</t>
+  </si>
+  <si>
+    <t>Eurasia, North America, Australia, New Zealand</t>
+  </si>
+  <si>
+    <t>Europe, North America</t>
+  </si>
+  <si>
+    <t>Europe, Japan</t>
+  </si>
+  <si>
+    <t>Eurasia, North America</t>
+  </si>
+  <si>
+    <t>Europe, North America, Australia, New Zealand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +1137,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,11 +1195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,23 +1519,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56651270-A6C0-48D1-9949-F24DF80A76F1}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -651,10 +1573,55 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -668,59 +1635,245 @@
         <f>2583-1926</f>
         <v>657</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E3">
+        <v>7073</v>
+      </c>
+      <c r="F3">
+        <v>3537</v>
+      </c>
+      <c r="G3">
+        <f>E3-F3</f>
+        <v>3536</v>
+      </c>
+      <c r="H3">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <f>H3-L3</f>
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <f>K3-O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4">
         <f>((3324+3453)/2)-25</f>
         <v>3363.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="0">E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="P4">
+        <f t="shared" ref="P4:P22" si="1">H4-L4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q22" si="2">K4-O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="8">
+        <f>233-162</f>
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>1766</v>
+      </c>
+      <c r="F5">
+        <v>2827</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1061</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="8">
+        <f>143-73</f>
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <f>0.61-2.6</f>
-        <v>-1.9900000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -734,8 +1887,50 @@
         <f>568-3589</f>
         <v>-3021</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -745,12 +1940,54 @@
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <f>3579-314</f>
         <v>3265</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="3">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -758,140 +1995,548 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <f>1590-2527</f>
         <v>-937</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="3">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <f>126-1902</f>
         <v>-1776</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>46</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <f>1312-981</f>
         <v>331</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="3">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D17">
         <f>3586-3721</f>
         <v>-135</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="3">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="3">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <f>633-779</f>
+        <v>-146</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="3">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <f>3504-2391</f>
         <v>1113</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D20">
         <f>351-((127+2260+3735)/3)</f>
         <v>-1689.6666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <f>810-3793</f>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="3">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <f>10-3723</f>
         <v>-3713</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE86A900-A694-4B9E-972E-9EC8BC033F70}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,18 +2574,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <f>5.8-13</f>
@@ -949,13 +2594,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <f>5.46-2.99</f>
@@ -970,7 +2615,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <f>((1.8+0.45)/2)-3.76</f>
@@ -978,184 +2623,202 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <f>32.8-33.5</f>
+        <v>-0.70000000000000284</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <f>0.61-2.6</f>
+        <v>-1.9900000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <f>13.2-((11.9+13.2))</f>
+        <v>-11.900000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <f>13.2-((11.9+13.2))</f>
-        <v>-11.900000000000002</v>
+        <f>0.97-1.4</f>
+        <v>-0.42999999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <f>0.97-1.4</f>
-        <v>-0.42999999999999994</v>
+        <f>3.66-7.13</f>
+        <v>-3.4699999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <f>3.66-7.13</f>
-        <v>-3.4699999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12">
         <f>8.2-4.81</f>
         <v>3.3899999999999997</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15">
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
         <f>3-1.8</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
+      <c r="D15">
         <f>2.1-0.9</f>
         <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <f>1.11-((1.33+6.7+1.3)/3)</f>
+        <v>-2.0000000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <f>1.11-((1.33+6.7+1.3)/3)</f>
-        <v>-2.0000000000000009</v>
+        <f>1.07-2.17</f>
+        <v>-1.0999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D18">
-        <f>1.07-2.17</f>
-        <v>-1.0999999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19">
         <f>0.78-3</f>
         <v>-2.2199999999999998</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <f>0.84-2.98</f>
+        <v>-2.14</v>
+      </c>
+    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Self-Cross Pairs.xlsx
+++ b/Self-Cross Pairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63610B11-45A9-4CD3-A118-D40638C318BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB4D32-9625-4BE8-AAC6-9225658C4580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3228" windowWidth="20988" windowHeight="9132" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
+    <workbookView xWindow="-2220" yWindow="3912" windowWidth="20988" windowHeight="9132" activeTab="1" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
   <si>
     <t>Self</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Papaver</t>
   </si>
   <si>
-    <t>Triofolium</t>
-  </si>
-  <si>
     <t>Veronica</t>
   </si>
   <si>
@@ -1079,9 +1076,6 @@
     <t>Europe, Americas, SE Australia, New Zealand</t>
   </si>
   <si>
-    <t>Europe (not N), Mediterranean Basin, W North America</t>
-  </si>
-  <si>
     <t>Europe, W North America, New Zealand</t>
   </si>
   <si>
@@ -1107,13 +1101,552 @@
   </si>
   <si>
     <t>Europe, North America, Australia, New Zealand</t>
+  </si>
+  <si>
+    <t>Europe (not N), Mediterranean Basin (Middle East, N Africa), W North America</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biogeography and Phylogeny of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cardamine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Brassicaceae). Carlsen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Molecular phylogenetics of the clover genus (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trifolium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Leguminosae). Ellison </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogenetic relationships within </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Luzula </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DC. and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Juncus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L. (Juncaceae): A comparison of phylogenetic signals of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">F intergenic spacer, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L intro and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L plastome sequence data. Dr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ábková </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2006.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogenetics of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Papaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Related Genera Based on DNA Sequences from ITS Nuclear Ribosomal RNA and Plastid </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">trnL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Intron and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trnL-F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Intergenic Spacers. Carolan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2006.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tackling speciose genera: species composition and phylogenetic position of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Senecio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sect. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jacobaea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Asteraceae) based on plastid and nrDNA sequences. Pelser </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2002.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complex rearrangements are involved in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cephalanthera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Orchidaceae) chromosome evolution. Moscone </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2007.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogeny of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Veronica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- a Combination of Molecular and Chemical Evidence. Taskova </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2004</t>
+    </r>
+  </si>
+  <si>
+    <t>Only 2 in dataset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chloroplast DNA characters, phylogeny and classification of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lathyrus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fabaceae). Asmussen and Liston, 1998.</t>
+    </r>
+  </si>
+  <si>
+    <t>Likely to be a ploidy effect- exclude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,6 +1700,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1521,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56651270-A6C0-48D1-9949-F24DF80A76F1}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,20 +2082,20 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="204.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1553,13 +2105,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1576,49 +2128,49 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
       <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
         <v>124</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>125</v>
-      </c>
-      <c r="S2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1649,10 +2201,10 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1661,10 +2213,10 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O3" s="3">
         <v>5</v>
@@ -1678,10 +2230,10 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
         <v>127</v>
-      </c>
-      <c r="S3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -1719,10 +2271,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="8">
         <f>233-162</f>
@@ -1742,10 +2294,10 @@
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="3">
         <v>8</v>
@@ -1754,10 +2306,10 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -1771,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" t="s">
         <v>129</v>
-      </c>
-      <c r="S5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1782,10 +2334,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="8">
         <f>143-73</f>
@@ -1799,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="3">
         <v>4</v>
@@ -1811,10 +2363,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
         <v>120</v>
-      </c>
-      <c r="N6" t="s">
-        <v>121</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1828,10 +2380,10 @@
         <v>-2</v>
       </c>
       <c r="R6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -1895,10 +2447,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="3">
         <v>7</v>
@@ -1907,10 +2459,10 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
@@ -1924,10 +2476,10 @@
         <v>-1</v>
       </c>
       <c r="R9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1952,10 +2504,10 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" s="3">
         <v>6</v>
@@ -1964,10 +2516,10 @@
         <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O10" s="3">
         <v>7</v>
@@ -1981,10 +2533,10 @@
         <v>-1</v>
       </c>
       <c r="R10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1995,7 +2547,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <f>1590-2527</f>
@@ -2009,10 +2561,10 @@
         <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="3">
         <v>6</v>
@@ -2021,10 +2573,10 @@
         <v>51</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O11" s="3">
         <v>8</v>
@@ -2038,10 +2590,10 @@
         <v>-2</v>
       </c>
       <c r="R11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <f>126-1902</f>
@@ -2089,10 +2641,10 @@
         <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="3">
         <v>7</v>
@@ -2101,10 +2653,10 @@
         <v>46</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O13" s="3">
         <v>7</v>
@@ -2118,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2192,10 +2744,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="3">
         <v>8</v>
@@ -2204,10 +2756,10 @@
         <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" s="3">
         <v>7</v>
@@ -2221,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" t="s">
         <v>139</v>
-      </c>
-      <c r="S16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2235,7 +2787,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <f>3586-3721</f>
@@ -2249,10 +2801,10 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="3">
         <v>8</v>
@@ -2261,10 +2813,10 @@
         <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O17" s="3">
         <v>7</v>
@@ -2278,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2289,10 +2841,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D18">
         <f>633-779</f>
@@ -2306,10 +2858,10 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="3">
         <v>8</v>
@@ -2318,10 +2870,10 @@
         <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="3">
         <v>8</v>
@@ -2335,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2363,10 +2915,10 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="3">
         <v>8</v>
@@ -2375,10 +2927,10 @@
         <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O19" s="3">
         <v>8</v>
@@ -2392,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2447,10 +2999,10 @@
         <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="3">
         <v>8</v>
@@ -2459,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O21" s="3">
         <v>8</v>
@@ -2476,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2504,10 +3056,10 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
@@ -2516,10 +3068,10 @@
         <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="3">
         <v>7</v>
@@ -2533,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2547,23 +3099,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE86A900-A694-4B9E-972E-9EC8BC033F70}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2577,37 +3132,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <f>5.8-13</f>
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D4">
         <f>5.46-2.99</f>
         <v>2.4699999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2615,44 +3179,53 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <f>((1.8+0.45)/2)-3.76</f>
         <v>-2.6349999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D6">
         <f>32.8-33.5</f>
         <v>-0.70000000000000284</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D7">
         <f>0.61-2.6</f>
         <v>-1.9900000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2660,14 +3233,17 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <f>13.2-((11.9+13.2))</f>
         <v>-11.900000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2681,69 +3257,81 @@
         <f>0.97-1.4</f>
         <v>-0.42999999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <f>3.66-7.13</f>
         <v>-3.4699999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D11">
         <f>8.2-4.81</f>
         <v>3.3899999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D14">
         <f>3-1.8</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
@@ -2755,37 +3343,46 @@
         <f>2.1-0.9</f>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <f>1.11-((1.33+6.7+1.3)/3)</f>
         <v>-2.0000000000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <f>1.07-2.17</f>
         <v>-1.0999999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
@@ -2794,30 +3391,37 @@
         <f>0.78-3</f>
         <v>-2.2199999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D19">
         <f>0.84-2.98</f>
         <v>-2.14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Self-Cross Pairs.xlsx
+++ b/Self-Cross Pairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB4D32-9625-4BE8-AAC6-9225658C4580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D02ACF-18AD-40A4-8A41-8D32E05BDC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2220" yWindow="3912" windowWidth="20988" windowHeight="9132" activeTab="1" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
+    <workbookView xWindow="0" yWindow="3228" windowWidth="20988" windowHeight="9132" activeTab="1" xr2:uid="{388707E4-9B80-484D-A7E7-82C3356596AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="162">
   <si>
     <t>Self</t>
   </si>
@@ -1639,7 +1639,31 @@
     </r>
   </si>
   <si>
-    <t>Likely to be a ploidy effect- exclude</t>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>mean(x)</t>
+  </si>
+  <si>
+    <t>sd(x)</t>
+  </si>
+  <si>
+    <t>diff-mean(diff)</t>
+  </si>
+  <si>
+    <t>(diff-mean(diff))^2</t>
+  </si>
+  <si>
+    <t>expected(mean(x))</t>
+  </si>
+  <si>
+    <t>se(x)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>self/cross</t>
   </si>
 </sst>
 </file>
@@ -3099,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE86A900-A694-4B9E-972E-9EC8BC033F70}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,15 +3134,22 @@
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3129,10 +3160,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -3142,18 +3191,38 @@
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3">
         <f>5.8-13</f>
         <v>-7.2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3">
+        <f>G3-$C$23</f>
+        <v>-6.2841666666666667</v>
+      </c>
+      <c r="I3">
+        <f>H3*H3</f>
+        <v>39.490750694444444</v>
+      </c>
+      <c r="J3">
+        <f>D3/E3</f>
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="K3" s="1">
+        <f>E3/D3</f>
+        <v>2.2413793103448278</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3163,15 +3232,38 @@
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4">
         <f>5.46-2.99</f>
         <v>2.4699999999999998</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4">
+        <f t="shared" ref="H4:H19" si="0">G4-$C$23</f>
+        <v>3.3858333333333333</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I19" si="1">H4*H4</f>
+        <v>11.463867361111111</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J19" si="2">D4/E4</f>
+        <v>1.826086956521739</v>
+      </c>
+      <c r="K4" s="1">
+        <f>D4/E4</f>
+        <v>1.826086956521739</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3181,15 +3273,30 @@
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5">
         <f>((1.8+0.45)/2)-3.76</f>
         <v>-2.6349999999999998</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-1.7191666666666663</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>2.9555340277777766</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3199,15 +3306,38 @@
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6">
         <f>32.8-33.5</f>
         <v>-0.70000000000000284</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.21583333333333077</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.658402777777667E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.97910447761194019</v>
+      </c>
+      <c r="K6">
+        <f>E6/D6</f>
+        <v>1.0213414634146343</v>
+      </c>
+      <c r="L6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3217,15 +3347,38 @@
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7">
         <f>0.61-2.6</f>
         <v>-1.9900000000000002</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-1.0741666666666667</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.1538340277777779</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.23461538461538461</v>
+      </c>
+      <c r="K7" s="1">
+        <f>E7/D7</f>
+        <v>4.2622950819672134</v>
+      </c>
+      <c r="L7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3235,15 +3388,30 @@
       <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8">
         <f>13.2-((11.9+13.2))</f>
         <v>-11.900000000000002</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-10.984166666666669</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>120.65191736111116</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3253,15 +3421,38 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9">
         <f>0.97-1.4</f>
         <v>-0.42999999999999994</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.48583333333333367</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.2360340277777781</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.69285714285714284</v>
+      </c>
+      <c r="K9">
+        <f>E9/D9</f>
+        <v>1.4432989690721649</v>
+      </c>
+      <c r="L9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -3271,15 +3462,38 @@
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10">
         <f>3.66-7.13</f>
         <v>-3.4699999999999998</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-2.5541666666666663</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6.5237673611111093</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.51332398316970551</v>
+      </c>
+      <c r="K10" s="1">
+        <f>E10/D10</f>
+        <v>1.9480874316939889</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -3289,29 +3503,82 @@
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11">
         <f>8.2-4.81</f>
         <v>3.3899999999999997</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4.3058333333333332</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>18.540200694444444</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.7047817047817049</v>
+      </c>
+      <c r="K11" s="3">
+        <f>D11/E11</f>
+        <v>1.7047817047817049</v>
+      </c>
+      <c r="L11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.91583333333333361</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.83875069444444494</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.91583333333333361</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.83875069444444494</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -3321,15 +3588,38 @@
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14">
         <f>3-1.8</f>
         <v>1.2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.1158333333333337</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>4.476750694444446</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K14" s="3">
+        <f>D14/E14</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="L14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3339,15 +3629,38 @@
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15">
         <f>2.1-0.9</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.1158333333333337</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.476750694444446</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K15" s="1">
+        <f>D15/E15</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -3355,15 +3668,30 @@
       <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16">
         <f>1.11-((1.33+6.7+1.3)/3)</f>
         <v>-2.0000000000000009</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-1.0841666666666674</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.1754173611111127</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -3371,15 +3699,38 @@
       <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17">
         <f>1.07-2.17</f>
         <v>-1.0999999999999999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-0.18416666666666626</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3.3917361111110961E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.49308755760368667</v>
+      </c>
+      <c r="K17" s="1">
+        <f>E17/D17</f>
+        <v>2.02803738317757</v>
+      </c>
+      <c r="L17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>60</v>
@@ -3387,15 +3738,38 @@
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18">
         <f>0.78-3</f>
         <v>-2.2199999999999998</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-1.3041666666666663</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.7008506944444433</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="K18" s="1">
+        <f>E18/D18</f>
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="L18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -3405,20 +3779,94 @@
       <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19">
         <f>0.84-2.98</f>
         <v>-2.14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-1.2241666666666666</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.4985840277777778</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.28187919463087246</v>
+      </c>
+      <c r="K19" s="1">
+        <f>E19/D19</f>
+        <v>3.5476190476190479</v>
+      </c>
+      <c r="L19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20">
+        <f>G20-C40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="3">
+        <f>(G3+G4+G6+G7+G9+G10+G11+G14+G15+G17+G18+G19)/12</f>
+        <v>-0.91583333333333361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24">
+        <f>(I3+I4+I6+I7+I9+I10+I11+I14+I15+I17+I18+I19)/11</f>
+        <v>8.1492628787878783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25">
+        <f>C24/SQRT(12)</f>
+        <v>2.3524895583826031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <f>(C23-C22)/C25</f>
+        <v>-0.38930388875476774</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
